--- a/docentes/Rodríguez Román Leticia - Estadisticos 2020.xlsx
+++ b/docentes/Rodríguez Román Leticia - Estadisticos 2020.xlsx
@@ -1171,7 +1171,7 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1194,7 +1194,7 @@
         <v>9</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1217,7 +1217,7 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1240,7 +1240,7 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1263,7 +1263,7 @@
         <v>11</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1286,7 +1286,7 @@
         <v>11</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1309,7 +1309,7 @@
         <v>12</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1332,7 +1332,7 @@
         <v>12</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1355,7 +1355,7 @@
         <v>12</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1378,7 +1378,7 @@
         <v>9</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1401,7 +1401,7 @@
         <v>9</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1424,7 +1424,7 @@
         <v>9</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1447,7 +1447,7 @@
         <v>9</v>
       </c>
       <c r="G14">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1470,7 +1470,7 @@
         <v>9</v>
       </c>
       <c r="G15">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1493,7 +1493,7 @@
         <v>9</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1516,7 +1516,7 @@
         <v>9</v>
       </c>
       <c r="G17">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1539,7 +1539,7 @@
         <v>9</v>
       </c>
       <c r="G18">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1562,7 +1562,7 @@
         <v>10</v>
       </c>
       <c r="G19">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1585,7 +1585,7 @@
         <v>10</v>
       </c>
       <c r="G20">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1608,7 +1608,7 @@
         <v>10</v>
       </c>
       <c r="G21">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1631,7 +1631,7 @@
         <v>11</v>
       </c>
       <c r="G22">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1654,7 +1654,7 @@
         <v>11</v>
       </c>
       <c r="G23">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1677,7 +1677,7 @@
         <v>11</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1700,7 +1700,7 @@
         <v>11</v>
       </c>
       <c r="G25">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1723,7 +1723,7 @@
         <v>11</v>
       </c>
       <c r="G26">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1746,7 +1746,7 @@
         <v>11</v>
       </c>
       <c r="G27">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1769,7 +1769,7 @@
         <v>12</v>
       </c>
       <c r="G28">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1792,7 +1792,7 @@
         <v>12</v>
       </c>
       <c r="G29">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1815,7 +1815,7 @@
         <v>12</v>
       </c>
       <c r="G30">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1838,7 +1838,7 @@
         <v>12</v>
       </c>
       <c r="G31">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1861,7 +1861,7 @@
         <v>12</v>
       </c>
       <c r="G32">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1884,7 +1884,7 @@
         <v>12</v>
       </c>
       <c r="G33">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1907,7 +1907,7 @@
         <v>12</v>
       </c>
       <c r="G34">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1930,7 +1930,7 @@
         <v>12</v>
       </c>
       <c r="G35">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1953,7 +1953,7 @@
         <v>12</v>
       </c>
       <c r="G36">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1976,7 +1976,7 @@
         <v>12</v>
       </c>
       <c r="G37">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Rodríguez Román Leticia - Estadisticos 2020.xlsx
+++ b/docentes/Rodríguez Román Leticia - Estadisticos 2020.xlsx
@@ -477,19 +477,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>43.59</v>
+        <v>46.15</v>
       </c>
       <c r="H2">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -529,19 +529,19 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G4">
-        <v>45.83</v>
+        <v>62.5</v>
       </c>
       <c r="H4">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -555,19 +555,19 @@
         <v>37</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G5">
-        <v>21.62</v>
+        <v>40.54</v>
       </c>
       <c r="H5">
-        <v>6.9</v>
+        <v>5.8</v>
       </c>
     </row>
   </sheetData>
@@ -623,16 +623,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>33.33</v>
+      </c>
+      <c r="H2">
+        <v>6.8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -669,16 +672,19 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
         <v>11</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
-        <v>0</v>
+        <v>45.83</v>
+      </c>
+      <c r="H4">
+        <v>6.6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -692,16 +698,19 @@
         <v>37</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>10.81</v>
+      </c>
+      <c r="H5">
+        <v>6.8</v>
       </c>
     </row>
   </sheetData>
@@ -757,19 +766,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>43.59</v>
+        <v>35.9</v>
       </c>
       <c r="H2">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -809,19 +818,19 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>45.83</v>
+        <v>58.33</v>
       </c>
       <c r="H4">
-        <v>7.4</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -835,19 +844,19 @@
         <v>37</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <v>21.62</v>
+        <v>37.84</v>
       </c>
       <c r="H5">
-        <v>6.9</v>
+        <v>5.8</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Rodríguez Román Leticia - Estadisticos 2020.xlsx
+++ b/docentes/Rodríguez Román Leticia - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="111">
   <si>
     <t>Mat</t>
   </si>
@@ -74,6 +74,282 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>VEGA</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>PALACIOS</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>CONDADO</t>
+  </si>
+  <si>
+    <t>FLORENCIO</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>TOCOHUA</t>
+  </si>
+  <si>
+    <t>ALVAREZ</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>TZANAHUA</t>
+  </si>
+  <si>
+    <t>TEPOLE</t>
+  </si>
+  <si>
+    <t>VALENCIA</t>
+  </si>
+  <si>
+    <t>VILLEGAS</t>
+  </si>
+  <si>
+    <t>COUDER</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>NAVARRO</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>MENCIAS</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>TEXOCO</t>
+  </si>
+  <si>
+    <t>BERNABE</t>
+  </si>
+  <si>
+    <t>DEL ANGEL</t>
+  </si>
+  <si>
+    <t>ANGUIANO</t>
+  </si>
+  <si>
+    <t>TETLA</t>
+  </si>
+  <si>
+    <t>BERISTAIN</t>
+  </si>
+  <si>
+    <t>MORAN</t>
+  </si>
+  <si>
+    <t>YEPEZ</t>
+  </si>
+  <si>
+    <t>CHICO</t>
+  </si>
+  <si>
+    <t>ZUÑIGA</t>
+  </si>
+  <si>
+    <t>ONOFRE</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>OLTEHUA</t>
+  </si>
+  <si>
+    <t>ALAMILLO</t>
+  </si>
+  <si>
+    <t>HAZIEL</t>
+  </si>
+  <si>
+    <t>YAIR ANTONIO</t>
+  </si>
+  <si>
+    <t>NATANAEL</t>
+  </si>
+  <si>
+    <t>ELIDETH</t>
+  </si>
+  <si>
+    <t>ALAN EDUARDO</t>
+  </si>
+  <si>
+    <t>MARIA FERNANDA</t>
+  </si>
+  <si>
+    <t>XIMENA</t>
+  </si>
+  <si>
+    <t>KAREN</t>
+  </si>
+  <si>
+    <t>CATHERIN DALAY</t>
+  </si>
+  <si>
+    <t>JOSE JAZAEL</t>
+  </si>
+  <si>
+    <t>JOSUE ALEXIS</t>
+  </si>
+  <si>
+    <t>JESUS ENRIQUE</t>
+  </si>
+  <si>
+    <t>URIEL</t>
+  </si>
+  <si>
+    <t>YAEL</t>
+  </si>
+  <si>
+    <t>JOSUE</t>
+  </si>
+  <si>
+    <t>JOSUE GILBERTO</t>
+  </si>
+  <si>
+    <t>ADOLFO</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL</t>
+  </si>
+  <si>
+    <t>EMMANUEL</t>
+  </si>
+  <si>
+    <t>HUGO</t>
+  </si>
+  <si>
+    <t>JAIR</t>
+  </si>
+  <si>
+    <t>GAEL</t>
+  </si>
+  <si>
+    <t>JOCELYN BERENICE</t>
+  </si>
+  <si>
+    <t>JOHNNY</t>
+  </si>
+  <si>
+    <t>ERICK ORLANDO</t>
+  </si>
+  <si>
+    <t>MAURICIO</t>
+  </si>
+  <si>
+    <t>IVAN</t>
+  </si>
+  <si>
+    <t>YULIANA</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO</t>
+  </si>
+  <si>
+    <t>MARIANA JOSELIN</t>
+  </si>
+  <si>
+    <t>JESE YAEL</t>
+  </si>
+  <si>
+    <t>CINTHIA</t>
+  </si>
+  <si>
+    <t>KATHERINE AZUL</t>
+  </si>
+  <si>
+    <t>ABRIL CITLALLI</t>
+  </si>
+  <si>
+    <t>LIZETH</t>
+  </si>
+  <si>
+    <t>RUTH</t>
+  </si>
+  <si>
+    <t>DAMARIS JABNEL</t>
+  </si>
+  <si>
+    <t>NURIEL</t>
+  </si>
+  <si>
+    <t>DENISSE MERARY</t>
+  </si>
+  <si>
+    <t>ROCIO</t>
   </si>
 </sst>
 </file>
@@ -503,10 +779,10 @@
         <v>37</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>11</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
       </c>
       <c r="F3">
         <v>26</v>
@@ -515,7 +791,7 @@
         <v>70.27</v>
       </c>
       <c r="H3">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -649,16 +925,19 @@
         <v>37</v>
       </c>
       <c r="D3">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>48.65</v>
+      </c>
+      <c r="H3">
+        <v>7.1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -698,19 +977,19 @@
         <v>37</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E5">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>10.81</v>
+        <v>21.62</v>
       </c>
       <c r="H5">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
     </row>
   </sheetData>
@@ -792,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>11</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
       </c>
       <c r="F3">
         <v>26</v>
@@ -804,7 +1083,7 @@
         <v>70.27</v>
       </c>
       <c r="H3">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -866,7 +1145,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -899,6 +1178,926 @@
         <v>18</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>19330051920011</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>18330051920168</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>18330061460390</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>19330051920024</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>19330051920039</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>19330051920303</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>19330051920129</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>19330051920130</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>19330051920135</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>19330051920085</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>19330051920093</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>19330051920097</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>19330051920103</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>19330051920110</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>19330051920116</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>19330051920121</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>19330051920122</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>19330051920003</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19330051920012</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>19330051920020</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>19330051920021</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>19330051920029</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>19330051920035</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>19330051920034</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>19330051920038</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>19330051920037</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>19330051920040</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>19330051920276</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>19330051920159</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>19330051920281</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>19330051920161</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>19330051920163</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>19330051920173</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>19330051920176</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>19330051920175</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>19330051920180</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>19330051920128</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>19330051920131</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>19330051920133</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" t="s">
+        <v>109</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>19330051920136</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Rodríguez Román Leticia - Estadisticos 2020.xlsx
+++ b/docentes/Rodríguez Román Leticia - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="118">
   <si>
     <t>Mat</t>
   </si>
@@ -103,6 +103,54 @@
     <t>PALACIOS</t>
   </si>
   <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
+    <t>ALVAREZ</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>TZANAHUA</t>
+  </si>
+  <si>
+    <t>TEPOLE</t>
+  </si>
+  <si>
+    <t>VALENCIA</t>
+  </si>
+  <si>
+    <t>VILLEGAS</t>
+  </si>
+  <si>
+    <t>COUDER</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>NAVARRO</t>
+  </si>
+  <si>
     <t>ANTONIO</t>
   </si>
   <si>
@@ -112,9 +160,6 @@
     <t>FLORENCIO</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
     <t>MARTINEZ</t>
   </si>
   <si>
@@ -127,45 +172,6 @@
     <t>TOCOHUA</t>
   </si>
   <si>
-    <t>ALVAREZ</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>TZANAHUA</t>
-  </si>
-  <si>
-    <t>TEPOLE</t>
-  </si>
-  <si>
-    <t>VALENCIA</t>
-  </si>
-  <si>
-    <t>VILLEGAS</t>
-  </si>
-  <si>
-    <t>COUDER</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>NAVARRO</t>
-  </si>
-  <si>
     <t>AGUILAR</t>
   </si>
   <si>
@@ -187,6 +193,42 @@
     <t>MORALES</t>
   </si>
   <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>MORAN</t>
+  </si>
+  <si>
+    <t>YEPEZ</t>
+  </si>
+  <si>
+    <t>CHICO</t>
+  </si>
+  <si>
+    <t>ZUÑIGA</t>
+  </si>
+  <si>
+    <t>TETLA</t>
+  </si>
+  <si>
+    <t>ONOFRE</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>OLTEHUA</t>
+  </si>
+  <si>
+    <t>ALAMILLO</t>
+  </si>
+  <si>
     <t>TEXOCO</t>
   </si>
   <si>
@@ -199,39 +241,9 @@
     <t>ANGUIANO</t>
   </si>
   <si>
-    <t>TETLA</t>
-  </si>
-  <si>
     <t>BERISTAIN</t>
   </si>
   <si>
-    <t>MORAN</t>
-  </si>
-  <si>
-    <t>YEPEZ</t>
-  </si>
-  <si>
-    <t>CHICO</t>
-  </si>
-  <si>
-    <t>ZUÑIGA</t>
-  </si>
-  <si>
-    <t>ONOFRE</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>OLTEHUA</t>
-  </si>
-  <si>
-    <t>ALAMILLO</t>
-  </si>
-  <si>
     <t>HAZIEL</t>
   </si>
   <si>
@@ -259,6 +271,84 @@
     <t>CATHERIN DALAY</t>
   </si>
   <si>
+    <t>MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>YARITZI</t>
+  </si>
+  <si>
+    <t>ROMARIO ALDAIR</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL</t>
+  </si>
+  <si>
+    <t>EMMANUEL</t>
+  </si>
+  <si>
+    <t>HUGO</t>
+  </si>
+  <si>
+    <t>JAIR</t>
+  </si>
+  <si>
+    <t>GAEL</t>
+  </si>
+  <si>
+    <t>JOCELYN BERENICE</t>
+  </si>
+  <si>
+    <t>JOHNNY</t>
+  </si>
+  <si>
+    <t>ERICK ORLANDO</t>
+  </si>
+  <si>
+    <t>MAURICIO</t>
+  </si>
+  <si>
+    <t>IVAN</t>
+  </si>
+  <si>
+    <t>YULIANA</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO</t>
+  </si>
+  <si>
+    <t>MARIANA JOSELIN</t>
+  </si>
+  <si>
+    <t>JESE YAEL</t>
+  </si>
+  <si>
+    <t>CINTHIA</t>
+  </si>
+  <si>
+    <t>KATHERINE AZUL</t>
+  </si>
+  <si>
+    <t>ABRIL CITLALLI</t>
+  </si>
+  <si>
+    <t>LIZETH</t>
+  </si>
+  <si>
+    <t>RUTH</t>
+  </si>
+  <si>
+    <t>DAMARIS JABNEL</t>
+  </si>
+  <si>
+    <t>NURIEL</t>
+  </si>
+  <si>
+    <t>DENISSE MERARY</t>
+  </si>
+  <si>
+    <t>ROCIO</t>
+  </si>
+  <si>
     <t>JOSE JAZAEL</t>
   </si>
   <si>
@@ -281,75 +371,6 @@
   </si>
   <si>
     <t>ADOLFO</t>
-  </si>
-  <si>
-    <t>JOSE MANUEL</t>
-  </si>
-  <si>
-    <t>EMMANUEL</t>
-  </si>
-  <si>
-    <t>HUGO</t>
-  </si>
-  <si>
-    <t>JAIR</t>
-  </si>
-  <si>
-    <t>GAEL</t>
-  </si>
-  <si>
-    <t>JOCELYN BERENICE</t>
-  </si>
-  <si>
-    <t>JOHNNY</t>
-  </si>
-  <si>
-    <t>ERICK ORLANDO</t>
-  </si>
-  <si>
-    <t>MAURICIO</t>
-  </si>
-  <si>
-    <t>IVAN</t>
-  </si>
-  <si>
-    <t>YULIANA</t>
-  </si>
-  <si>
-    <t>MARCO ANTONIO</t>
-  </si>
-  <si>
-    <t>MARIANA JOSELIN</t>
-  </si>
-  <si>
-    <t>JESE YAEL</t>
-  </si>
-  <si>
-    <t>CINTHIA</t>
-  </si>
-  <si>
-    <t>KATHERINE AZUL</t>
-  </si>
-  <si>
-    <t>ABRIL CITLALLI</t>
-  </si>
-  <si>
-    <t>LIZETH</t>
-  </si>
-  <si>
-    <t>RUTH</t>
-  </si>
-  <si>
-    <t>DAMARIS JABNEL</t>
-  </si>
-  <si>
-    <t>NURIEL</t>
-  </si>
-  <si>
-    <t>DENISSE MERARY</t>
-  </si>
-  <si>
-    <t>ROCIO</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1166,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1186,10 +1207,10 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1209,10 +1230,10 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1232,10 +1253,10 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1255,10 +1276,10 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1278,10 +1299,10 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1301,10 +1322,10 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1327,7 +1348,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1347,10 +1368,10 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1370,10 +1391,10 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1387,16 +1408,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>19330051920085</v>
+        <v>19330051920102</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -1410,16 +1431,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>19330051920093</v>
+        <v>19330051920117</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1433,16 +1454,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>19330051920097</v>
+        <v>19330051920118</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -1456,131 +1477,131 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>19330051920103</v>
+        <v>19330051920003</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>19330051920110</v>
+        <v>19330051920012</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>19330051920116</v>
+        <v>19330051920020</v>
       </c>
       <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>19330051920121</v>
+        <v>19330051920021</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>19330051920122</v>
+        <v>19330051920029</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>19330051920003</v>
+        <v>19330051920035</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -1594,16 +1615,16 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>19330051920012</v>
+        <v>19330051920034</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -1617,16 +1638,16 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>19330051920020</v>
+        <v>19330051920038</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -1640,16 +1661,16 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>19330051920021</v>
+        <v>19330051920037</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
@@ -1663,16 +1684,16 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>19330051920029</v>
+        <v>19330051920040</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
@@ -1686,22 +1707,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>19330051920035</v>
+        <v>19330051920276</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1709,22 +1730,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>19330051920034</v>
+        <v>19330051920159</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1732,22 +1753,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>19330051920038</v>
+        <v>19330051920281</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1755,22 +1776,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>19330051920037</v>
+        <v>19330051920161</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1778,22 +1799,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>19330051920040</v>
+        <v>19330051920163</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1801,16 +1822,16 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>19330051920276</v>
+        <v>19330051920173</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
@@ -1824,16 +1845,16 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>19330051920159</v>
+        <v>19330051920176</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
@@ -1847,16 +1868,16 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>19330051920281</v>
+        <v>19330051920175</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
@@ -1870,16 +1891,16 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>19330051920161</v>
+        <v>19330051920180</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
@@ -1893,22 +1914,22 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>19330051920163</v>
+        <v>19330051920128</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1916,22 +1937,22 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>19330051920173</v>
+        <v>19330051920131</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D34" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1939,22 +1960,22 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>19330051920176</v>
+        <v>19330051920133</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1962,22 +1983,22 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>19330051920175</v>
+        <v>19330051920136</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E36" t="s">
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1985,22 +2006,22 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>19330051920180</v>
+        <v>19330051920085</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -2008,22 +2029,22 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>19330051920128</v>
+        <v>19330051920093</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -2031,22 +2052,22 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>19330051920131</v>
+        <v>19330051920097</v>
       </c>
       <c r="B39" t="s">
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -2054,22 +2075,22 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>19330051920133</v>
+        <v>19330051920103</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D40" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -2077,24 +2098,93 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>19330051920136</v>
+        <v>19330051920110</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>19330051920116</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>19330051920121</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>19330051920122</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" t="s">
+        <v>117</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44">
         <v>1</v>
       </c>
     </row>

--- a/docentes/Rodríguez Román Leticia - Estadisticos 2020.xlsx
+++ b/docentes/Rodríguez Román Leticia - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="109">
   <si>
     <t>Mat</t>
   </si>
@@ -121,9 +121,6 @@
     <t>SANCHEZ</t>
   </si>
   <si>
-    <t>TZANAHUA</t>
-  </si>
-  <si>
     <t>TEPOLE</t>
   </si>
   <si>
@@ -157,18 +154,12 @@
     <t>CONDADO</t>
   </si>
   <si>
-    <t>FLORENCIO</t>
-  </si>
-  <si>
     <t>MARTINEZ</t>
   </si>
   <si>
     <t>ROJAS</t>
   </si>
   <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
     <t>TOCOHUA</t>
   </si>
   <si>
@@ -232,12 +223,6 @@
     <t>TEXOCO</t>
   </si>
   <si>
-    <t>BERNABE</t>
-  </si>
-  <si>
-    <t>DEL ANGEL</t>
-  </si>
-  <si>
     <t>ANGUIANO</t>
   </si>
   <si>
@@ -295,9 +280,6 @@
     <t>GAEL</t>
   </si>
   <si>
-    <t>JOCELYN BERENICE</t>
-  </si>
-  <si>
     <t>JOHNNY</t>
   </si>
   <si>
@@ -355,19 +337,10 @@
     <t>JOSUE ALEXIS</t>
   </si>
   <si>
-    <t>JESUS ENRIQUE</t>
-  </si>
-  <si>
-    <t>URIEL</t>
-  </si>
-  <si>
     <t>YAEL</t>
   </si>
   <si>
     <t>JOSUE</t>
-  </si>
-  <si>
-    <t>JOSUE GILBERTO</t>
   </si>
   <si>
     <t>ADOLFO</t>
@@ -774,10 +747,10 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F2">
         <v>18</v>
@@ -786,7 +759,7 @@
         <v>46.15</v>
       </c>
       <c r="H2">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -920,19 +893,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2">
+        <v>25</v>
+      </c>
+      <c r="F2">
         <v>14</v>
       </c>
-      <c r="F2">
-        <v>13</v>
-      </c>
       <c r="G2">
-        <v>33.33</v>
+        <v>35.9</v>
       </c>
       <c r="H2">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -998,19 +971,19 @@
         <v>37</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>21.62</v>
+        <v>29.73</v>
       </c>
       <c r="H5">
-        <v>7.1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1066,10 +1039,10 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F2">
         <v>14</v>
@@ -1078,7 +1051,7 @@
         <v>35.9</v>
       </c>
       <c r="H2">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1166,7 +1139,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1207,10 +1180,10 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1230,10 +1203,10 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1253,10 +1226,10 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1276,10 +1249,10 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1299,10 +1272,10 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1322,10 +1295,10 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1348,7 +1321,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1371,7 +1344,7 @@
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1391,10 +1364,10 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1414,10 +1387,10 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -1437,10 +1410,10 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1460,10 +1433,10 @@
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -1483,10 +1456,10 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -1506,10 +1479,10 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -1532,7 +1505,7 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -1552,10 +1525,10 @@
         <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -1578,7 +1551,7 @@
         <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -1592,16 +1565,16 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>19330051920035</v>
+        <v>19330051920034</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -1615,16 +1588,16 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>19330051920034</v>
+        <v>19330051920038</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -1638,16 +1611,16 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>19330051920038</v>
+        <v>19330051920037</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -1661,16 +1634,16 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>19330051920037</v>
+        <v>19330051920040</v>
       </c>
       <c r="B22" t="s">
         <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
@@ -1684,22 +1657,22 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>19330051920040</v>
+        <v>19330051920276</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1707,16 +1680,16 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>19330051920276</v>
+        <v>19330051920159</v>
       </c>
       <c r="B24" t="s">
         <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
@@ -1730,16 +1703,16 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>19330051920159</v>
+        <v>19330051920281</v>
       </c>
       <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
         <v>39</v>
       </c>
-      <c r="C25" t="s">
-        <v>63</v>
-      </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
@@ -1753,16 +1726,16 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>19330051920281</v>
+        <v>19330051920161</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
@@ -1776,16 +1749,16 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>19330051920161</v>
+        <v>19330051920163</v>
       </c>
       <c r="B27" t="s">
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
@@ -1799,16 +1772,16 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>19330051920163</v>
+        <v>19330051920173</v>
       </c>
       <c r="B28" t="s">
         <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
@@ -1822,16 +1795,16 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>19330051920173</v>
+        <v>19330051920176</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
@@ -1845,16 +1818,16 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>19330051920176</v>
+        <v>19330051920175</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
@@ -1868,16 +1841,16 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>19330051920175</v>
+        <v>19330051920180</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
@@ -1891,22 +1864,22 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>19330051920180</v>
+        <v>19330051920128</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1914,16 +1887,16 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>19330051920128</v>
+        <v>19330051920131</v>
       </c>
       <c r="B33" t="s">
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
@@ -1937,16 +1910,16 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>19330051920131</v>
+        <v>19330051920133</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
@@ -1960,16 +1933,16 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>19330051920133</v>
+        <v>19330051920136</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
@@ -1983,22 +1956,22 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>19330051920136</v>
+        <v>19330051920085</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E36" t="s">
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -2006,16 +1979,16 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>19330051920085</v>
+        <v>19330051920093</v>
       </c>
       <c r="B37" t="s">
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D37" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
@@ -2029,16 +2002,16 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>19330051920093</v>
+        <v>19330051920110</v>
       </c>
       <c r="B38" t="s">
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
@@ -2052,16 +2025,16 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>19330051920097</v>
+        <v>19330051920116</v>
       </c>
       <c r="B39" t="s">
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D39" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
@@ -2075,16 +2048,16 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>19330051920103</v>
+        <v>19330051920122</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D40" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
@@ -2093,98 +2066,6 @@
         <v>12</v>
       </c>
       <c r="G40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41">
-        <v>19330051920110</v>
-      </c>
-      <c r="B41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" t="s">
-        <v>114</v>
-      </c>
-      <c r="E41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42">
-        <v>19330051920116</v>
-      </c>
-      <c r="B42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" t="s">
-        <v>73</v>
-      </c>
-      <c r="D42" t="s">
-        <v>115</v>
-      </c>
-      <c r="E42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43">
-        <v>19330051920121</v>
-      </c>
-      <c r="B43" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" t="s">
-        <v>64</v>
-      </c>
-      <c r="D43" t="s">
-        <v>116</v>
-      </c>
-      <c r="E43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44">
-        <v>19330051920122</v>
-      </c>
-      <c r="B44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" t="s">
-        <v>117</v>
-      </c>
-      <c r="E44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44">
         <v>1</v>
       </c>
     </row>

--- a/docentes/Rodríguez Román Leticia - Estadisticos 2020.xlsx
+++ b/docentes/Rodríguez Román Leticia - Estadisticos 2020.xlsx
@@ -79,42 +79,42 @@
     <t>DE JESUS</t>
   </si>
   <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>VEGA</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>PALACIOS</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
+    <t>ALVAREZ</t>
+  </si>
+  <si>
     <t>PEREZ</t>
   </si>
   <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>VEGA</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>PALACIOS</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
-    <t>ALVAREZ</t>
-  </si>
-  <si>
     <t>RAMIREZ</t>
   </si>
   <si>
@@ -166,33 +166,33 @@
     <t>AGUILAR</t>
   </si>
   <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>MENCIAS</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>MORAN</t>
+  </si>
+  <si>
     <t>ROMERO</t>
   </si>
   <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>MUÑOZ</t>
-  </si>
-  <si>
-    <t>MENCIAS</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>MORAN</t>
-  </si>
-  <si>
     <t>YEPEZ</t>
   </si>
   <si>
@@ -232,43 +232,43 @@
     <t>HAZIEL</t>
   </si>
   <si>
+    <t>NATANAEL</t>
+  </si>
+  <si>
+    <t>ELIDETH</t>
+  </si>
+  <si>
+    <t>ALAN EDUARDO</t>
+  </si>
+  <si>
+    <t>MARIA FERNANDA</t>
+  </si>
+  <si>
+    <t>XIMENA</t>
+  </si>
+  <si>
+    <t>KAREN</t>
+  </si>
+  <si>
+    <t>CATHERIN DALAY</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>YARITZI</t>
+  </si>
+  <si>
+    <t>ROMARIO ALDAIR</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL</t>
+  </si>
+  <si>
+    <t>EMMANUEL</t>
+  </si>
+  <si>
     <t>YAIR ANTONIO</t>
-  </si>
-  <si>
-    <t>NATANAEL</t>
-  </si>
-  <si>
-    <t>ELIDETH</t>
-  </si>
-  <si>
-    <t>ALAN EDUARDO</t>
-  </si>
-  <si>
-    <t>MARIA FERNANDA</t>
-  </si>
-  <si>
-    <t>XIMENA</t>
-  </si>
-  <si>
-    <t>KAREN</t>
-  </si>
-  <si>
-    <t>CATHERIN DALAY</t>
-  </si>
-  <si>
-    <t>MIGUEL ANGEL</t>
-  </si>
-  <si>
-    <t>YARITZI</t>
-  </si>
-  <si>
-    <t>ROMARIO ALDAIR</t>
-  </si>
-  <si>
-    <t>JOSE MANUEL</t>
-  </si>
-  <si>
-    <t>EMMANUEL</t>
   </si>
   <si>
     <t>HUGO</t>
@@ -799,10 +799,10 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>15</v>
@@ -893,7 +893,7 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>25</v>
@@ -905,7 +905,7 @@
         <v>35.9</v>
       </c>
       <c r="H2">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -945,19 +945,19 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>12</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>45.83</v>
+        <v>50</v>
       </c>
       <c r="H4">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -971,7 +971,7 @@
         <v>37</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>26</v>
@@ -983,7 +983,7 @@
         <v>29.73</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>6.9</v>
       </c>
     </row>
   </sheetData>
@@ -1091,19 +1091,19 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>58.33</v>
+        <v>50</v>
       </c>
       <c r="H4">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1197,7 +1197,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>18330051920168</v>
+        <v>18330061460390</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330061460390</v>
+        <v>19330051920024</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920024</v>
+        <v>19330051920039</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920039</v>
+        <v>19330051920303</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -1281,7 +1281,7 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1289,13 +1289,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920303</v>
+        <v>19330051920129</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>75</v>
@@ -1304,7 +1304,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1312,13 +1312,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920129</v>
+        <v>19330051920130</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>76</v>
@@ -1335,13 +1335,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920130</v>
+        <v>19330051920135</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
         <v>77</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>19330051920135</v>
+        <v>19330051920102</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
@@ -1373,7 +1373,7 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>19330051920102</v>
+        <v>19330051920117</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
@@ -1404,13 +1404,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>19330051920117</v>
+        <v>19330051920118</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
         <v>80</v>
@@ -1427,13 +1427,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>19330051920118</v>
+        <v>19330051920003</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
         <v>81</v>
@@ -1442,21 +1442,21 @@
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>19330051920003</v>
+        <v>19330051920012</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
         <v>82</v>
@@ -1473,13 +1473,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>19330051920012</v>
+        <v>18330051920168</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
         <v>83</v>
@@ -1571,7 +1571,7 @@
         <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
         <v>87</v>
@@ -1591,7 +1591,7 @@
         <v>19330051920038</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
         <v>59</v>
@@ -1706,7 +1706,7 @@
         <v>19330051920281</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
@@ -1801,7 +1801,7 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
         <v>97</v>
@@ -1844,7 +1844,7 @@
         <v>19330051920180</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
         <v>64</v>
@@ -1939,7 +1939,7 @@
         <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" t="s">
         <v>103</v>
@@ -1985,7 +1985,7 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D37" t="s">
         <v>105</v>
@@ -2008,7 +2008,7 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s">
         <v>106</v>
